--- a/data/trans_dic/P23_4_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P23_4_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que cuenta con menos o muchas menos personas de las que desea que se preocupan de lo que le sucede</t>
+          <t>Población que cuenta con menos o muchas menos personas de las que desea que se preocupan de lo que le sucede (tasa de respuesta: 99,78%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8,33%</t>
+          <t>5,78%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,78%</t>
+          <t>6,83%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>6,89%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>10,3%</t>
+          <t>4,34%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>4,61%</t>
+          <t>8,54%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>8,99%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>5,39%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>5,48%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>4,3%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>7,86%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,64; 14,9</t>
+          <t>2,49; 10,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,6; 8,6</t>
+          <t>3,72; 10,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,14; 7,26</t>
+          <t>2,09; 6,79</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,15; 10,83</t>
+          <t>3,2; 13,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,76; 9,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,23; 5,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,47; 6,53</t>
+          <t>2,54; 9,51</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,54; 14,09</t>
+          <t>2,47; 6,92</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,98; 10,19</t>
+          <t>2,76; 7,12</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,35; 6,48</t>
+          <t>4,86; 13,49</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,89; 6,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,93; 11,51</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>3,22; 8,38</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>3,91; 7,74</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>2,94; 6,22</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>5,27; 11,92</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>6,29%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,45%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,64%</t>
+          <t>7,79%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>7,37%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>5,79%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>7,41%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>6,0%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>4,5%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>4,87%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>4,49%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,82; 6,19</t>
+          <t>2,31; 6,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,62; 8,5</t>
+          <t>4,08; 10,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,75; 9,27</t>
+          <t>2,62; 7,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,2; 10,23</t>
+          <t>1,86; 5,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,23; 10,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,63; 3,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,16; 7,32</t>
+          <t>5,03; 12,68</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,22; 10,15</t>
+          <t>1,55; 4,34</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,45; 7,52</t>
+          <t>3,94; 7,54</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,92; 5,68</t>
+          <t>3,56; 8,22</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,9; 7,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,83; 9,33</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>4,39; 8,78</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>3,13; 6,66</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>3,79; 6,81</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>3,14; 6,16</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,05%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,16%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
           <t>4,3%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>2,57%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>4,32%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>3,51%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>2,24%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
           <t>3,71%</t>
         </is>
       </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>4,59%</t>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>5,38%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1203,99 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,46; 5,61</t>
+          <t>1,07; 6,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,55; 6,3</t>
+          <t>0,53; 6,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,66; 5,84</t>
+          <t>1,7; 5,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,94; 10,5</t>
+          <t>3,62; 10,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,49; 6,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,58; 4,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,81; 6,15</t>
+          <t>2,3; 6,82</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,58; 6,07</t>
+          <t>1,32; 4,04</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,48; 5,38</t>
+          <t>3,03; 6,36</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,31; 4,34</t>
+          <t>2,77; 6,98</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,7; 5,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,08; 7,16</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>2,21; 5,35</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>1,25; 4,6</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>2,64; 5,13</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>3,6; 7,81</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>4,92%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,16%</t>
+          <t>7,33%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>6,32%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,43%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>3,61%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>7,3%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>5,61%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>2,67%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>5,81%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,2019 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,44; 6,1</t>
+          <t>3,17; 7,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,23; 6,21</t>
+          <t>1,32; 5,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,85; 6,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,52; 9,13</t>
+          <t>4,3; 12,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,87; 7,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,08; 3,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,94; 5,98</t>
+          <t>4,21; 8,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,01; 9,22</t>
+          <t>1,27; 4,69</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,53; 6,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,9; 4,52</t>
+          <t>2,19; 6,94</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,69; 5,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,22; 8,59</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>4,26; 7,24</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>1,65; 4,09</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>3,88; 8,54</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4,3%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4,41%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3,79%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>5,81%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>6,15%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2,94%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>4,91%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>5,43%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>5,25%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>3,66%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>4,36%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>5,62%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>3,22; 5,67</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>3,31; 6,33</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2,74; 5,36</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>4,39; 8,03</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>4,77; 7,85</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>2,23; 3,79</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>4,01; 6,11</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>4,12; 6,78</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>4,36; 6,25</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>2,97; 4,62</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>3,64; 5,39</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>4,69; 6,77</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que cuenta con menos o muchas menos personas de las que desea que se preocupan de lo que le sucede (tasa de respuesta: 99,78%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>19238</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>36049</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>27991</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>30413</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>21476</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>27439</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>40906</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>54571</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>40715</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>63488</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>68897</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>84984</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>8301; 36585</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>19625; 57340</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>14957; 48536</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>14129; 58111</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>10719; 40085</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>15633; 43716</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>24492; 63168</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>31066; 86228</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>24325; 63213</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>45362; 89788</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>47160; 99637</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>56995; 128799</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>38043</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>75762</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>68268</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>35681</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>77729</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>33818</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>83137</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>60593</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>115773</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>109580</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>151405</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>96274</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>21582; 63921</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>49193; 124162</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>41996; 126919</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>19705; 61656</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>50148; 126407</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>19079; 53357</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>59376; 113685</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>38545; 89050</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>84775; 169448</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>76233; 162219</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>117841; 211685</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>67446; 132072</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>19024</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>17299</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>32836</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>52577</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>33041</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>22756</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>50687</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>40235</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>52065</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>40055</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>83523</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>92812</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7670; 42920</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4467; 51549</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>18561; 61727</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>30022; 88855</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>17725; 52453</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>12386; 38008</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>35211; 74020</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>24873; 62646</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>32867; 79407</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>22423; 82272</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>59465; 115645</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>62125; 134795</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>70373</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>22516</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>80542</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>87380</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>20514</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>39428</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>157753</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>43030</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>119970</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>45313; 106343</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>11314; 43180</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>47294; 132760</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>58201; 122311</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>9557; 35424</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>21177; 67155</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>119795; 203701</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>26531; 66011</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>80071; 176371</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>146679</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>151625</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>129095</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>199213</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>219627</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>104528</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>174730</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>194827</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>366305</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>256153</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>303825</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>394039</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>109823; 193454</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>113915; 217386</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>93261; 182558</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>150490; 275400</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>170395; 280395</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>79277; 134761</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>142604; 217319</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>147642; 243244</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>304194; 436136</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>207769; 323366</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>253421; 375086</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>329387; 474929</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
